--- a/public/assets/BieuMau.xlsx
+++ b/public/assets/BieuMau.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAP-005\Desktop\graduate_fe\graduation_fee\src\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAP-005\Desktop\graduate_fe\graduation_fee\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,12 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Email</t>
-  </si>
-  <si>
-    <t>Mật khẩu</t>
   </si>
   <si>
     <t>Họ và tên</t>
@@ -377,22 +374,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,25 +401,19 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>12345678</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2">
+        <v>37622</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="2">
-        <v>37622</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
